--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_68.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1700680272108843</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1884615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.6, 17.16)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:07.702000', '0:00:13.841000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:25.480000', '0:00:32.760000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2770562770562771</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(33.92, 37.81)]</t>
+          <t>[('0:00:19.140000', '0:00:22.240000'), ('0:00:08.020000', '0:00:15.100000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:04:22.920000', '0:04:26.900000'), ('0:04:21.680000', '0:04:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_27</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.2976190476190476</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[['G', 'C', 'G']]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2321428571428572</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'C', 'G/3']]</t>
-        </is>
+          <t>isophonics_192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1228070175438596</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>[['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(34.416, 41.151)]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(65.131995, 74.199387)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:15.355124', '0:01:20.742154')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:59.292687', '0:01:14.118628')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1990740740740741</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06853146853146853</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G', 'A', 'D', 'G']]</t>
+          <t>[['F:min/G#', 'A#:min', 'F:min/G#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.366281, 20.172902)]</t>
+          <t>[['C:min', 'F:min', 'C:min/5']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.159256, 10.412408)]</t>
+          <t>[('0:01:37.760000', '0:01:49.380000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3'], ['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648), (14.168, 18.573)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.3, 20.68), (43.26, 45.66)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(51.42, 55.54)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.0, 24.34)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(15.124263, 21.811609)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.384, 18.837)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:35.260000', '0:01:53.640000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1888888888888889</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D', 'G', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C', 'F', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.276145, 40.651565)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.446485, 8.148526)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(59.5, 65.04)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.48, 24.64)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.34, 17.36)]</t>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.239569, 40.954761), (18.826145, 26.43068)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.02, 66.2), (55.58, 62.32)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(22.3, 48.74)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.56, 27.36)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(101.06, 102.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(68.08, 87.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
